--- a/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
@@ -7,19 +7,20 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,63 +481,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>53.5</v>
+        <v>-15.75</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>恒基达鑫 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-16 09:31:49</t>
+          <t>2025-07-17 10:07:43</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>卧龙电驱</t>
+          <t>无</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>无 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-16 09:39:39</t>
+          <t>2025-07-17 10:08:12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>士兰微</t>
+          <t>大众交通</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -552,19 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>无 没有可用持仓</t>
+          <t>大众交通 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-16 10:14:27</t>
+          <t>2025-07-17 10:08:35</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>大众交通</t>
+          <t>无</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -573,26 +574,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>无法获取可用资金</t>
+          <t>买入 无 未知 股失败: {'code': -32002, 'data': "Selector [className='android.widget.EditText', instance=2]", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-16 10:14:47</t>
+          <t>2025-07-17 10:09:12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>湖南投资</t>
+          <t>华孚时尚</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -601,54 +602,54 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.02</v>
+        <v>10</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>买入 华孚时尚 未知 股失败: {'code': -32002, 'data': "Selector [className='android.widget.EditText', instance=2]", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-16 11:12:54</t>
+          <t>2025-07-17 10:09:45</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>*ST亚太</t>
+          <t>卧龙电驱</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>买入 *ST亚太 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+          <t>卧龙电驱 没有可用持仓</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-16 11:13:19</t>
+          <t>2025-07-17 14:34:06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>和展能源</t>
+          <t>恒生电子</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -657,1564 +658,47 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.02</v>
+        <v>33</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-16 11:14:36</t>
+          <t>2025-07-17 14:34:31</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ST数源</t>
+          <t>合锻智能</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>买入 ST数源 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+          <t>卖出 合锻智能 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-16 11:15:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>*ST兰黄</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:15:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>金房能源</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>买入 金房能源 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:16:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>买入 农心科技 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>买入 坤泰股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>买入 光华股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:19:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>楚环科技</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>买入 楚环科技 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:20:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>南矿集团</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>买入 南矿集团 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:21:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:58:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:58:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:59:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>世龙实业</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>买入 世龙实业 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:59:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>买入 黄山胶囊 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:59:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>名雕股份</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>买入 名雕股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:00:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>海象新材</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:00:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>金富科技</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:01:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>锐奇股份</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>买入 锐奇股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:01:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>维尔利</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>买入 维尔利 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:02:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>三雄极光</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:02:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>浙江力诺</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:03:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>华骐环保</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:03:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>*ST清研</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:04:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>仁信新材</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>买入 仁信新材 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:04:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>森泰股份</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>买入 森泰股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:04:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>港通医疗</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:05:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:05:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>恒丰纸业</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:06:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>腾达建设</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:06:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>菲达环保</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>买入 菲达环保 未知 股失败: ('Unknown RPC error: -32001 androidx.test.uiautomator.StaleObjectException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},), 'androidx.test.uiautomator.StaleObjectException\n\tat androidx.test.uiautomator.UiObject2.getAccessibilityNodeInfo(UiObject2.java:1018)\n\tat androidx.test.uiautomator.UiObject2.isCheckable(UiObject2.java:423)\n\tat com.wetest.uia2.stub.ObjInfo.&lt;init&gt;(ObjInfo.java:68)\n\tat com.wetest.uia2.stub.ObjInfo.getObjInfo(ObjInfo.java:44)\n\tat com.wetest.uia2.stub.AutomatorServiceImpl.objInfo(AutomatorServiceImpl.java:844)\n\tat java.lang.reflect.Method.invoke(Native Method)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.invoke(JsonRpcBasicServer.java:467)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleObject(JsonRpcBasicServer.java:352)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleJsonNodeRequest(JsonRpcBasicServer.java:283)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleRequest(JsonRpcBasicServer.java:251)\n\tat com.wetest.uia2.stub.AutomatorHttpServer.serve(AutomatorHttpServer.java:101)\n\tat fi.iki.elonen.NanoHTTPD.serve(NanoHTTPD.java:2244)\n\tat fi.iki.elonen.NanoHTTPD$HTTPSession.execute(NanoHTTPD.java:945)\n\tat fi.iki.elonen.NanoHTTPD$ClientHandler.run(NanoHTTPD.java:192)\n\tat java.lang.Thread.run(Thread.java:764)\n')</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:07:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>京投发展</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:07:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>博闻科技</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:08:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>买入 奥康国际 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:08:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>彩蝶实业</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:09:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:10:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>汇通集团</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>买入 汇通集团 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:10:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>德创环保</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:11:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>嘉华股份</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:11:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>建研院</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>买入 建研院 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:12:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>梅轮电梯</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:12:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>天创时尚</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>买入 天创时尚 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:13:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>建发合诚</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>买入 建发合诚 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:13:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>铁流股份</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>买入 铁流股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:13:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>炬芯科技</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:14:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>申联生物</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:14:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>高铁电气</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>买入 高铁电气 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:15:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>复洁环保</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>工大高科</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:15:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>科美诊断</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D56" t="b">
-        <v>1</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:16:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>九州一轨</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:16:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>金冠电气</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D58" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:16:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>康众医疗</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D59" t="b">
-        <v>0</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>元琛科技</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D60" t="b">
-        <v>0</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>买入 元琛科技 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:17:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>科汇股份</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D61" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:17:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>33</v>
-      </c>
-      <c r="D62" t="b">
-        <v>0</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:18:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>33</v>
-      </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:18:54</t>
+          <t>2025-07-17 14:35:15</t>
         </is>
       </c>
     </row>
@@ -2277,58 +761,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2340,51 +824,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2400,12 +884,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -2463,35 +947,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2500,7 +984,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -2512,23 +996,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -2540,63 +1024,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -2606,6 +1090,197 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2740,7 +1415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2937,7 +1612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2985,58 +1660,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-58.48</v>
+        <v>53.5</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>粤宏远A 没有可用持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-15 09:33:18</t>
+          <t>2025-07-16 09:31:49</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>多氟多</t>
+          <t>卧龙电驱</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>多氟多 没有可用持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-15 09:33:50</t>
+          <t>2025-07-16 09:39:39</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3052,19 +1727,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>奥康国际 没有可用持仓</t>
+          <t>无 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-15 09:35:53</t>
+          <t>2025-07-16 10:14:27</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>中创物流</t>
+          <t>大众交通</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3073,26 +1748,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
+          <t>无法获取可用资金</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-15 09:49:59</t>
+          <t>2025-07-16 10:14:47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>博敏电子</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3101,82 +1776,82 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>0.02</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-15 10:32:17</t>
+          <t>2025-07-16 11:12:54</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>*ST亚太</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
+          <t>买入 *ST亚太 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-15 10:33:17</t>
+          <t>2025-07-16 11:13:19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>和展能源</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-15 10:34:15</t>
+          <t>2025-07-16 11:14:36</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>士兰微</t>
+          <t>ST数源</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3185,19 +1860,1536 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 ST数源 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:15:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>*ST兰黄</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:15:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>金房能源</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>买入 金房能源 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:16:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>买入 农心科技 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>买入 坤泰股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:17:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>买入 光华股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:19:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>买入 楚环科技 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:20:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>南矿集团</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>买入 南矿集团 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:21:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:58:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:58:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:59:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>买入 世龙实业 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:59:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>买入 黄山胶囊 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:59:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>买入 名雕股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:00:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>海象新材</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:00:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>金富科技</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:01:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>锐奇股份</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>买入 锐奇股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:01:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>维尔利</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>买入 维尔利 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:02:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>三雄极光</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:02:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>浙江力诺</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:03:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>华骐环保</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:03:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>*ST清研</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:04:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>仁信新材</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>买入 仁信新材 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:04:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>森泰股份</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>买入 森泰股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:04:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>港通医疗</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:05:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:05:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>恒丰纸业</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:06:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>腾达建设</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:06:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>菲达环保</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>买入 菲达环保 未知 股失败: ('Unknown RPC error: -32001 androidx.test.uiautomator.StaleObjectException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},), 'androidx.test.uiautomator.StaleObjectException\n\tat androidx.test.uiautomator.UiObject2.getAccessibilityNodeInfo(UiObject2.java:1018)\n\tat androidx.test.uiautomator.UiObject2.isCheckable(UiObject2.java:423)\n\tat com.wetest.uia2.stub.ObjInfo.&lt;init&gt;(ObjInfo.java:68)\n\tat com.wetest.uia2.stub.ObjInfo.getObjInfo(ObjInfo.java:44)\n\tat com.wetest.uia2.stub.AutomatorServiceImpl.objInfo(AutomatorServiceImpl.java:844)\n\tat java.lang.reflect.Method.invoke(Native Method)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.invoke(JsonRpcBasicServer.java:467)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleObject(JsonRpcBasicServer.java:352)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleJsonNodeRequest(JsonRpcBasicServer.java:283)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleRequest(JsonRpcBasicServer.java:251)\n\tat com.wetest.uia2.stub.AutomatorHttpServer.serve(AutomatorHttpServer.java:101)\n\tat fi.iki.elonen.NanoHTTPD.serve(NanoHTTPD.java:2244)\n\tat fi.iki.elonen.NanoHTTPD$HTTPSession.execute(NanoHTTPD.java:945)\n\tat fi.iki.elonen.NanoHTTPD$ClientHandler.run(NanoHTTPD.java:192)\n\tat java.lang.Thread.run(Thread.java:764)\n')</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:07:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>京投发展</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:07:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>博闻科技</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:08:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>买入 奥康国际 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:08:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>彩蝶实业</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:09:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:10:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>汇通集团</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>买入 汇通集团 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:10:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>德创环保</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:11:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>嘉华股份</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:11:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>买入 建研院 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:12:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>梅轮电梯</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:12:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>天创时尚</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>买入 天创时尚 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:13:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>建发合诚</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>买入 建发合诚 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:13:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>铁流股份</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>买入 铁流股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:13:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>炬芯科技</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:14:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>申联生物</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:14:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>高铁电气</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>买入 高铁电气 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:15:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>复洁环保</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:15:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>工大高科</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:15:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>科美诊断</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:16:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>九州一轨</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:16:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>金冠电气</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:16:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>康众医疗</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>元琛科技</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>买入 元琛科技 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>科汇股份</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:17:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
         <v>33</v>
       </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:18:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>合锻智能</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>33</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:18:54</t>
         </is>
       </c>
     </row>
@@ -3255,7 +3447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3264,54 +3456,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3327,19 +3519,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3348,26 +3540,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3376,26 +3568,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3411,19 +3603,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3439,40 +3631,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -3482,6 +3674,281 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4008,7 +4475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4093,7 +4560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4145,7 +4612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4252,7 +4719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4385,195 +4852,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-27.94</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山高环能</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-29.21</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>稀土ETF基金</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
@@ -7,20 +7,21 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +482,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -490,26 +491,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-15.75</v>
+        <v>-20.82</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>恒基达鑫 没有可用持仓</t>
+          <t>居然智家 没有持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-17 10:07:43</t>
+          <t>2025-07-18 10:37:59</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -518,26 +519,26 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-22.32</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>无 没有可用持仓</t>
+          <t>恒基达鑫 没有持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-17 10:08:12</t>
+          <t>2025-07-18 10:38:09</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>大众交通</t>
+          <t>华孚时尚</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,19 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>大众交通 没有可用持仓</t>
+          <t>华孚时尚 没有持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-17 10:08:35</t>
+          <t>2025-07-18 10:38:30</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>航锦科技</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -574,131 +575,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入 无 未知 股失败: {'code': -32002, 'data': "Selector [className='android.widget.EditText', instance=2]", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-17 10:09:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>华孚时尚</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 华孚时尚 未知 股失败: {'code': -32002, 'data': "Selector [className='android.widget.EditText', instance=2]", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:09:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卧龙电驱 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-17 14:34:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>恒生电子</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-17 14:34:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>卖出 合锻智能 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-17 14:35:15</t>
+          <t>2025-07-18 13:57:54</t>
         </is>
       </c>
     </row>
@@ -713,7 +602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,35 +645,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>沃顿科技</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-27.94</v>
+        <v>13.6</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>不在持仓列表中</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-03 09:33:42</t>
+          <t>2025-07-01 09:33:51</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>山高环能</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -793,26 +682,26 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-29.21</v>
+        <v>-38.32</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-03 09:33:53</t>
+          <t>2025-07-01 11:21:11</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>稀土ETF基金</t>
+          <t>果麦文化</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -833,63 +722,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
+          <t>2025-07-01 11:22:20</t>
         </is>
       </c>
     </row>
@@ -952,58 +785,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1015,51 +848,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1075,12 +908,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -1138,35 +971,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1175,7 +1008,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1187,23 +1020,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1215,63 +1048,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -1281,6 +1114,197 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1415,7 +1439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1612,7 +1636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1655,63 +1679,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>53.5</v>
+        <v>-15.75</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>恒基达鑫 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-16 09:31:49</t>
+          <t>2025-07-17 10:07:43</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>卧龙电驱</t>
+          <t>无</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>无 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-16 09:39:39</t>
+          <t>2025-07-17 10:08:12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>士兰微</t>
+          <t>大众交通</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1727,19 +1751,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>无 没有可用持仓</t>
+          <t>大众交通 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-16 10:14:27</t>
+          <t>2025-07-17 10:08:35</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>大众交通</t>
+          <t>无</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1748,26 +1772,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>无法获取可用资金</t>
+          <t>买入 无 未知 股失败: {'code': -32002, 'data': "Selector [className='android.widget.EditText', instance=2]", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-16 10:14:47</t>
+          <t>2025-07-17 10:09:12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>湖南投资</t>
+          <t>华孚时尚</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1776,54 +1800,54 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.02</v>
+        <v>10</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>买入 华孚时尚 未知 股失败: {'code': -32002, 'data': "Selector [className='android.widget.EditText', instance=2]", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-16 11:12:54</t>
+          <t>2025-07-17 10:09:45</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>*ST亚太</t>
+          <t>卧龙电驱</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>买入 *ST亚太 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+          <t>卧龙电驱 没有可用持仓</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-16 11:13:19</t>
+          <t>2025-07-17 14:34:06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>和展能源</t>
+          <t>恒生电子</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1832,1564 +1856,47 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.02</v>
+        <v>33</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-16 11:14:36</t>
+          <t>2025-07-17 14:34:31</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ST数源</t>
+          <t>合锻智能</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>买入 ST数源 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+          <t>卖出 合锻智能 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-16 11:15:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>*ST兰黄</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:15:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>金房能源</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>买入 金房能源 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:16:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>买入 农心科技 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>买入 坤泰股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>买入 光华股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:19:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>楚环科技</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>买入 楚环科技 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:20:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>南矿集团</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>买入 南矿集团 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:21:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:58:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:58:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:59:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>世龙实业</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>买入 世龙实业 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:59:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>买入 黄山胶囊 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:59:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>名雕股份</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>买入 名雕股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:00:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>海象新材</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:00:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>金富科技</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:01:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>锐奇股份</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>买入 锐奇股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:01:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>维尔利</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>买入 维尔利 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:02:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>三雄极光</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:02:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>浙江力诺</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:03:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>华骐环保</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:03:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>*ST清研</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:04:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>仁信新材</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>买入 仁信新材 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:04:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>森泰股份</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>买入 森泰股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:04:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>港通医疗</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:05:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:05:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>恒丰纸业</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:06:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>腾达建设</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:06:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>菲达环保</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>买入 菲达环保 未知 股失败: ('Unknown RPC error: -32001 androidx.test.uiautomator.StaleObjectException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},), 'androidx.test.uiautomator.StaleObjectException\n\tat androidx.test.uiautomator.UiObject2.getAccessibilityNodeInfo(UiObject2.java:1018)\n\tat androidx.test.uiautomator.UiObject2.isCheckable(UiObject2.java:423)\n\tat com.wetest.uia2.stub.ObjInfo.&lt;init&gt;(ObjInfo.java:68)\n\tat com.wetest.uia2.stub.ObjInfo.getObjInfo(ObjInfo.java:44)\n\tat com.wetest.uia2.stub.AutomatorServiceImpl.objInfo(AutomatorServiceImpl.java:844)\n\tat java.lang.reflect.Method.invoke(Native Method)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.invoke(JsonRpcBasicServer.java:467)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleObject(JsonRpcBasicServer.java:352)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleJsonNodeRequest(JsonRpcBasicServer.java:283)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleRequest(JsonRpcBasicServer.java:251)\n\tat com.wetest.uia2.stub.AutomatorHttpServer.serve(AutomatorHttpServer.java:101)\n\tat fi.iki.elonen.NanoHTTPD.serve(NanoHTTPD.java:2244)\n\tat fi.iki.elonen.NanoHTTPD$HTTPSession.execute(NanoHTTPD.java:945)\n\tat fi.iki.elonen.NanoHTTPD$ClientHandler.run(NanoHTTPD.java:192)\n\tat java.lang.Thread.run(Thread.java:764)\n')</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:07:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>京投发展</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:07:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>博闻科技</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:08:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>买入 奥康国际 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:08:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>彩蝶实业</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:09:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:10:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>汇通集团</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>买入 汇通集团 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:10:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>德创环保</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:11:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>嘉华股份</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:11:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>建研院</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>买入 建研院 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:12:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>梅轮电梯</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:12:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>天创时尚</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>买入 天创时尚 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:13:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>建发合诚</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>买入 建发合诚 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:13:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>铁流股份</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>买入 铁流股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:13:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>炬芯科技</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:14:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>申联生物</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:14:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>高铁电气</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>买入 高铁电气 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:15:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>复洁环保</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>工大高科</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:15:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>科美诊断</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D56" t="b">
-        <v>1</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:16:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>九州一轨</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:16:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>金冠电气</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D58" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:16:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>康众医疗</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D59" t="b">
-        <v>0</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>元琛科技</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D60" t="b">
-        <v>0</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>买入 元琛科技 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:17:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>科汇股份</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D61" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:17:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>33</v>
-      </c>
-      <c r="D62" t="b">
-        <v>0</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:18:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>33</v>
-      </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:18:54</t>
+          <t>2025-07-17 14:35:15</t>
         </is>
       </c>
     </row>
@@ -3404,7 +1911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3452,58 +1959,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-58.48</v>
+        <v>53.5</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>粤宏远A 没有可用持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-15 09:33:18</t>
+          <t>2025-07-16 09:31:49</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>多氟多</t>
+          <t>卧龙电驱</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>多氟多 没有可用持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-15 09:33:50</t>
+          <t>2025-07-16 09:39:39</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3519,19 +2026,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>奥康国际 没有可用持仓</t>
+          <t>无 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-15 09:35:53</t>
+          <t>2025-07-16 10:14:27</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>中创物流</t>
+          <t>大众交通</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3540,26 +2047,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
+          <t>无法获取可用资金</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-15 09:49:59</t>
+          <t>2025-07-16 10:14:47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>博敏电子</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3568,82 +2075,82 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>0.02</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-15 10:32:17</t>
+          <t>2025-07-16 11:12:54</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>*ST亚太</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
+          <t>买入 *ST亚太 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-15 10:33:17</t>
+          <t>2025-07-16 11:13:19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>和展能源</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-15 10:34:15</t>
+          <t>2025-07-16 11:14:36</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>士兰微</t>
+          <t>ST数源</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3652,19 +2159,1536 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 ST数源 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:15:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>*ST兰黄</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:15:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>金房能源</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>买入 金房能源 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:16:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>买入 农心科技 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>买入 坤泰股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:17:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>买入 光华股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:19:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>买入 楚环科技 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:20:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>南矿集团</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>买入 南矿集团 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:21:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:58:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:58:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:59:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>买入 世龙实业 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:59:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>买入 黄山胶囊 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:59:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>买入 名雕股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:00:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>海象新材</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:00:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>金富科技</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:01:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>锐奇股份</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>买入 锐奇股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:01:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>维尔利</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>买入 维尔利 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:02:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>三雄极光</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:02:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>浙江力诺</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:03:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>华骐环保</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:03:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>*ST清研</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:04:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>仁信新材</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>买入 仁信新材 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:04:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>森泰股份</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>买入 森泰股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:04:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>港通医疗</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:05:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:05:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>恒丰纸业</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:06:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>腾达建设</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:06:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>菲达环保</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>买入 菲达环保 未知 股失败: ('Unknown RPC error: -32001 androidx.test.uiautomator.StaleObjectException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},), 'androidx.test.uiautomator.StaleObjectException\n\tat androidx.test.uiautomator.UiObject2.getAccessibilityNodeInfo(UiObject2.java:1018)\n\tat androidx.test.uiautomator.UiObject2.isCheckable(UiObject2.java:423)\n\tat com.wetest.uia2.stub.ObjInfo.&lt;init&gt;(ObjInfo.java:68)\n\tat com.wetest.uia2.stub.ObjInfo.getObjInfo(ObjInfo.java:44)\n\tat com.wetest.uia2.stub.AutomatorServiceImpl.objInfo(AutomatorServiceImpl.java:844)\n\tat java.lang.reflect.Method.invoke(Native Method)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.invoke(JsonRpcBasicServer.java:467)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleObject(JsonRpcBasicServer.java:352)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleJsonNodeRequest(JsonRpcBasicServer.java:283)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleRequest(JsonRpcBasicServer.java:251)\n\tat com.wetest.uia2.stub.AutomatorHttpServer.serve(AutomatorHttpServer.java:101)\n\tat fi.iki.elonen.NanoHTTPD.serve(NanoHTTPD.java:2244)\n\tat fi.iki.elonen.NanoHTTPD$HTTPSession.execute(NanoHTTPD.java:945)\n\tat fi.iki.elonen.NanoHTTPD$ClientHandler.run(NanoHTTPD.java:192)\n\tat java.lang.Thread.run(Thread.java:764)\n')</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:07:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>京投发展</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:07:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>博闻科技</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:08:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>买入 奥康国际 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:08:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>彩蝶实业</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:09:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:10:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>汇通集团</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>买入 汇通集团 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:10:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>德创环保</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:11:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>嘉华股份</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:11:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>买入 建研院 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:12:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>梅轮电梯</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:12:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>天创时尚</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>买入 天创时尚 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:13:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>建发合诚</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>买入 建发合诚 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:13:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>铁流股份</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>买入 铁流股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:13:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>炬芯科技</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:14:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>申联生物</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:14:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>高铁电气</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>买入 高铁电气 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:15:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>复洁环保</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:15:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>工大高科</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:15:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>科美诊断</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:16:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>九州一轨</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:16:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>金冠电气</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:16:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>康众医疗</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>元琛科技</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>买入 元琛科技 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>科汇股份</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:17:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
         <v>33</v>
       </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:18:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>合锻智能</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>33</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:18:54</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3746,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3731,54 +3755,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3794,19 +3818,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3815,26 +3839,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3843,26 +3867,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3878,19 +3902,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3906,40 +3930,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -3949,6 +3973,281 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4475,7 +4774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4560,7 +4859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4612,7 +4911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4717,139 +5016,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>沃顿科技</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-01 09:33:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-38.32</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-01 11:21:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>果麦文化</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-01 11:22:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
@@ -7,21 +7,22 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>巨人网络</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -491,26 +492,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-20.82</v>
+        <v>-28.93</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>居然智家 没有持仓</t>
+          <t>巨人网络 没有持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-18 10:37:59</t>
+          <t>2025-07-21 17:38:11</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>建研院</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -519,75 +520,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-22.32</v>
+        <v>-1.08</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>恒基达鑫 没有持仓</t>
+          <t>建研院 没有持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-18 10:38:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>华孚时尚</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>华孚时尚 没有持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-18 10:38:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>航锦科技</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-18 13:57:54</t>
+          <t>2025-07-21 17:38:32</t>
         </is>
       </c>
     </row>
@@ -597,6 +542,113 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>德联集团</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-06-30 11:35:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>华正新材</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-06-30 11:36:26</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -723,197 +775,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2025-07-01 11:22:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-27.94</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山高环能</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-29.21</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>稀土ETF基金</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -976,58 +837,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1039,51 +900,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1099,12 +960,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -1162,35 +1023,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1199,7 +1060,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1211,23 +1072,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1239,63 +1100,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -1305,6 +1166,197 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1439,7 +1491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1636,6 +1688,169 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>居然智家 没有持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-18 10:37:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>恒基达鑫 没有持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-18 10:38:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>华孚时尚</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>华孚时尚 没有持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-18 10:38:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>航锦科技</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-18 13:57:54</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1905,7 +2120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3689,281 +3904,6 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>2025-07-16 12:18:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-58.48</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>粤宏远A 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>多氟多 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>奥康国际 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:35:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:32:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:34:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -4021,7 +3961,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4030,54 +3970,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4093,19 +4033,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4114,26 +4054,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4142,26 +4082,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4177,19 +4117,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4205,40 +4145,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -4248,6 +4188,281 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4774,7 +4989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4859,7 +5074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4909,111 +5124,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>德联集团</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-06-30 11:35:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>华正新材</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-06-30 11:36:26</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
@@ -7,22 +7,23 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,35 +484,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>巨人网络</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-28.93</v>
+        <v>31.8</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>巨人网络 没有持仓</t>
+          <t>买入 居然智家 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-21 17:38:11</t>
+          <t>2025-07-22 10:22:35</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>建研院</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -520,19 +521,131 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.08</v>
+        <v>-43.54</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>建研院 没有持仓</t>
+          <t>粤宏远A 没有持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-21 17:38:32</t>
+          <t>2025-07-22 10:22:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>航锦科技</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>航锦科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>三一重工 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:23:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>中联重科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:46:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>通力科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>通力科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:46:42</t>
         </is>
       </c>
     </row>
@@ -542,6 +655,58 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>诺力股份</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>不在持仓列表中</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-27 10:07:59</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>诺力股份_卖出_5.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -648,7 +813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -775,197 +940,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2025-07-01 11:22:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-27.94</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山高环能</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-29.21</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>稀土ETF基金</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -1028,58 +1002,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1091,51 +1065,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1151,12 +1125,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -1214,35 +1188,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1251,7 +1225,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1263,23 +1237,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1291,63 +1265,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -1357,6 +1331,197 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1491,7 +1656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1688,6 +1853,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>巨人网络</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-28.93</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>巨人网络 没有持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-21 17:38:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>建研院 没有持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-21 17:38:32</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1845,7 +2117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2120,7 +2392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3904,281 +4176,6 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>2025-07-16 12:18:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-58.48</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>粤宏远A 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>多氟多 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>奥康国际 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:35:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:32:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:34:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4233,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4245,54 +4242,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4308,19 +4305,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4329,26 +4326,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4357,26 +4354,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4392,19 +4389,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4420,40 +4417,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -4463,6 +4460,281 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4989,7 +5261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5072,56 +5344,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>诺力股份</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2025-06-27 10:07:59</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>诺力股份_卖出_5.0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
@@ -7,23 +7,24 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,168 +485,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31.8</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>买入 居然智家 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+          <t>卖出 粤宏远A 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-22 10:22:35</t>
+          <t>2025-07-23 13:45:19</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>望变电气</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-43.54</v>
+        <v>15</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>粤宏远A 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-22 10:22:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>航锦科技</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>航锦科技 没有持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-22 10:23:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>三一重工</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>三一重工 没有持仓</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-22 10:23:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>中联重科</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-22 13:46:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>通力科技</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>通力科技 没有持仓</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-22 13:46:42</t>
+          <t>2025-07-23 13:45:40</t>
         </is>
       </c>
     </row>
@@ -655,6 +544,91 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="D1" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>数量不足100股</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-25 20:11:49</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>居然智家_买入_55.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>神州信息</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-59.08</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>无可用数量</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-06-25 18:15:31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>神州信息_卖出_-59.08</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -706,7 +680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -813,7 +787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -940,197 +914,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2025-07-01 11:22:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-27.94</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山高环能</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-29.21</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>稀土ETF基金</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -1193,58 +976,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1256,51 +1039,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1316,12 +1099,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -1379,35 +1162,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1416,7 +1199,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1428,23 +1211,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1456,63 +1239,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -1522,6 +1305,197 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1656,7 +1630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1853,6 +1827,225 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>买入 居然智家 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-43.54</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>粤宏远A 没有持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:22:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>航锦科技</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>航锦科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>三一重工 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:23:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>中联重科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:46:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>通力科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>通力科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:46:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1954,7 +2147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2117,7 +2310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2392,7 +2585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4176,281 +4369,6 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>2025-07-16 12:18:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-58.48</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>粤宏远A 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>多氟多 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>奥康国际 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:35:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:32:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:34:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -4508,7 +4426,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4517,54 +4435,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4580,19 +4498,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4601,26 +4519,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4629,26 +4547,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4664,19 +4582,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4692,40 +4610,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -4735,6 +4653,281 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5259,89 +5452,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="D1" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>数量不足100股</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2025-06-25 20:11:49</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>居然智家_买入_55.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>神州信息</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-59.08</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>无可用数量</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-06-25 18:15:31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>神州信息_卖出_-59.08</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
@@ -7,24 +7,25 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -442,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +482,21 @@
           <t>时间</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -490,25 +506,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-9.640000000000001</v>
+        <v>32.54</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 粤宏远A 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-23 13:45:19</t>
-        </is>
-      </c>
+          <t>2025-07-24 10:29:22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -518,25 +537,214 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>望变电气 没有持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:46:04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>中创物流</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>卖出 中创物流 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:46:25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>望变电气</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>望变电气 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:46:41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>三安光电</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>委托已提交</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-23 13:45:40</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:46:57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>万丰奥威</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-24 11:22:49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>人福医药</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-24 13:36:28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>中联重科</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-24 14:08:09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -544,6 +752,533 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-11 10:12:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>调仓换票</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>卖出 调仓换票 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/title', text='交易']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-11 11:49:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>有机硅</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>买入 有机硅 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/title', text='交易']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-11 11:50:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>多氟多</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-11 11:51:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入 无 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:17:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>卖出 无 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/title', text='交易']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:22:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>买入 机器人 龙溪股份2025年07月11日主力资金流 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/title', text='交易']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:24:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>卖出 准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:39:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>先进封装 长电科技2025年07月11日主力资金流</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>无法获取可用资金</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:39:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>买入 有机硅 新亚强2025年07月11日主力资金流出 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:40:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:42:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>33</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:46:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>许继电气</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>许继电气 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:46:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>33</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>买入 长电科技 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_buy_text'},))</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:47:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>新亚强</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>买入 新亚强 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_buy_text'},))</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:47:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>未检测到'委托确认'提示</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:48:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>海格通信</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>卖出 海格通信 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-07-11 13:48:56</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -628,7 +1363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -680,7 +1415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -787,7 +1522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -914,197 +1649,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2025-07-01 11:22:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-27.94</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山高环能</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-29.21</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>稀土ETF基金</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -1167,58 +1711,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1230,51 +1774,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1290,12 +1834,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -1353,35 +1897,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1390,7 +1934,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1402,23 +1946,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1430,63 +1974,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -1496,6 +2040,197 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1630,7 +2365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1827,6 +2562,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-9.640000000000001</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 粤宏远A 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-23 13:45:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>望变电气</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-23 13:45:40</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2040,7 +2882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2147,7 +2989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2310,7 +3152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2585,7 +3427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4369,281 +5211,6 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>2025-07-16 12:18:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-58.48</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>粤宏远A 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>多氟多 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>奥康国际 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:35:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:32:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:34:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -4701,7 +5268,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4710,54 +5277,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4773,19 +5340,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4794,26 +5361,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4822,26 +5389,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4857,19 +5424,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4885,40 +5452,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -4933,7 +5500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4976,91 +5543,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>华胜天成</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36.74</v>
+        <v>-31.26</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-11 10:12:03</t>
+          <t>2025-07-14 09:44:51</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>调仓换票</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>21.69</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>卖出 调仓换票 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/title', text='交易']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-11 11:49:33</t>
+          <t>2025-07-14 09:46:39</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>有机硅</t>
+          <t>粤宏远Ａ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>买入 有机硅 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/title', text='交易']", 'method': 'wait'}</t>
+          <t>粤宏远Ａ 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-11 11:50:05</t>
+          <t>2025-07-14 10:13:11</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>多氟多</t>
+          <t>XD东方创</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5069,26 +5636,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>买入数量计算失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-11 11:51:09</t>
+          <t>2025-07-14 16:20:31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>国轩高科</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5104,19 +5671,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入 无 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+          <t>买入数量计算失败</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-11 13:17:38</t>
+          <t>2025-07-14 16:20:57</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>长电科技</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5132,47 +5699,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>卖出 无 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/title', text='交易']", 'method': 'wait'}</t>
+          <t>长电科技 没有可用持仓</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-11 13:22:44</t>
+          <t>2025-07-14 16:21:35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>机器人 龙溪股份2025年07月11日主力资金流</t>
+          <t>雪人集团</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>买入 机器人 龙溪股份2025年07月11日主力资金流 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/title', text='交易']", 'method': 'wait'}</t>
+          <t>当前时间不允许委托</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-11 13:24:48</t>
+          <t>2025-07-14 16:22:17</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪</t>
+          <t>龙溪股份</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5188,264 +5755,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>卖出 准备将仓位调向科技线 券商观点|新型电力系统报告之四：电网发展回顾及后续展望-特高压稳步推进隐忧仍在，配网低于预期改革初见端倪 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>当前时间不允许委托</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-11 13:39:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>先进封装 长电科技2025年07月11日主力资金流</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>无法获取可用资金</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:39:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>有机硅 新亚强2025年07月11日主力资金流出</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>买入 有机硅 新亚强2025年07月11日主力资金流出 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:40:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>调仓换票 国泰海通：上半年存量土地收购有序推进 多地收购存量商品房项目落地 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:42:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>龙溪股份</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>33</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:46:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>许继电气</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>许继电气 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:46:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>长电科技</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>33</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>买入 长电科技 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_buy_text'},))</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:47:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>新亚强</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>10</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>买入 新亚强 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_buy_text'},))</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:47:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>未检测到'委托确认'提示</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:48:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>海格通信</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>卖出 海格通信 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-07-11 13:48:56</t>
+          <t>2025-07-14 16:22:58</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
@@ -7,25 +7,26 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,93 +483,72 @@
           <t>时间</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32.54</v>
+        <v>-16</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>湖南投资 没有持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-24 10:29:22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>2025-07-25 09:47:07</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>望变电气</t>
+          <t>兴业银锡</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>望变电气 没有持仓</t>
+          <t>买入 兴业银锡 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-24 10:46:04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>2025-07-25 10:14:10</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>中创物流</t>
+          <t>宝钢股份</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -579,27 +559,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>卖出 中创物流 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+          <t>买入 宝钢股份 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-24 10:46:25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>2025-07-25 10:14:43</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>望变电气</t>
+          <t>镇海股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -610,22 +587,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>望变电气 没有持仓</t>
+          <t>买入 镇海股份 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-24 10:46:41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>2025-07-25 10:15:15</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>三安光电</t>
+          <t>美晨生态</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -634,38 +608,35 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>买入 美晨生态 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 17, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.TextView', 'text': '持仓'},))</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-24 10:46:57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>2025-07-25 10:15:19</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>万丰奥威</t>
+          <t>皇氏集团</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -677,74 +648,9 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-24 11:22:49</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>人福医药</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-24 13:36:28</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>中联重科</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-24 14:08:09</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>2025-07-25 13:21:06</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -752,6 +658,281 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1278,7 +1459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1363,7 +1544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1415,7 +1596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1522,7 +1703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1649,197 +1830,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2025-07-01 11:22:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-27.94</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山高环能</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-29.21</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>稀土ETF基金</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -1902,58 +1892,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1965,51 +1955,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2025,12 +2015,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -2088,35 +2078,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2125,7 +2115,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -2137,23 +2127,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -2165,63 +2155,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -2231,6 +2221,197 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2365,7 +2546,321 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32.54</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:29:22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>望变电气</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>望变电气 没有持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:46:04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>中创物流</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>卖出 中创物流 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:46:25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>望变电气</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>望变电气 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:46:41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>三安光电</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-24 10:46:57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>万丰奥威</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-24 11:22:49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>人福医药</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-24 13:36:28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>中联重科</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-24 14:08:09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2556,7 +3051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2663,7 +3158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2882,7 +3377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2989,7 +3484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3152,7 +3647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3427,7 +3922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5211,281 +5706,6 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>2025-07-16 12:18:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-58.48</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>粤宏远A 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>多氟多 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>奥康国际 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:35:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:32:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:34:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -5543,7 +5763,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5552,54 +5772,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5615,19 +5835,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5636,26 +5856,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5664,26 +5884,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5699,19 +5919,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5727,40 +5947,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
@@ -7,26 +7,27 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -444,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +497,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-16</v>
+        <v>-5.72</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -508,147 +509,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-25 09:47:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>兴业银锡</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>买入 兴业银锡 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-25 10:14:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>宝钢股份</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>买入 宝钢股份 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-25 10:14:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>镇海股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 镇海股份 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-25 10:15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>美晨生态</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 美晨生态 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 17, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.TextView', 'text': '持仓'},))</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-25 10:15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>皇氏集团</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-25 13:21:06</t>
+          <t>2025-07-28 09:32:32</t>
         </is>
       </c>
     </row>
@@ -706,7 +567,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -715,54 +576,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -778,19 +639,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -799,26 +660,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -827,26 +688,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -862,19 +723,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -890,40 +751,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -933,6 +794,281 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1459,7 +1595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1544,7 +1680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1596,7 +1732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1703,7 +1839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1830,197 +1966,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2025-07-01 11:22:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-27.94</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山高环能</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-29.21</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>稀土ETF基金</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -2083,58 +2028,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2146,51 +2091,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2206,12 +2151,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -2269,35 +2214,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2306,7 +2251,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -2318,23 +2263,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -2346,63 +2291,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -2412,6 +2357,416 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>湖南投资 没有持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-25 09:47:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>兴业银锡</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>买入 兴业银锡 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-25 10:14:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>宝钢股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>买入 宝钢股份 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-25 10:14:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>镇海股份</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入 镇海股份 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-25 10:15:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>美晨生态</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入 美晨生态 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 17, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.TextView', 'text': '持仓'},))</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-25 10:15:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>皇氏集团</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-25 13:21:06</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2546,7 +2901,198 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-7.2</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>恒基达鑫 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:22:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:23:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:29:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>荣晟环保</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>荣晟环保 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:30:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:31:12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2860,198 +3406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-7.2</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>恒基达鑫 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:22:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:23:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:29:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>荣晟环保 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:30:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:31:12</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3158,7 +3513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3377,7 +3732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3484,7 +3839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3647,7 +4002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3922,7 +4277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5712,279 +6067,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-58.48</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>粤宏远A 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>多氟多 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>奥康国际 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:35:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:32:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:34:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
@@ -7,27 +7,28 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,28 +489,224 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>湖南投资</t>
+          <t>银座股份</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:43:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳新星</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:44:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>大业股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:44:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>华设集团</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:44:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>皇氏集团</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>-5.72</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>湖南投资 没有持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-28 09:32:32</t>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>卖出 皇氏集团 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:49:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>****</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>买入 **** 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-29 11:22:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 华勤技术 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-29 11:22:19</t>
         </is>
       </c>
     </row>
@@ -524,7 +721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,58 +769,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-58.48</v>
+        <v>53.5</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>粤宏远A 没有可用持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-15 09:33:18</t>
+          <t>2025-07-16 09:31:49</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>多氟多</t>
+          <t>卧龙电驱</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>多氟多 没有可用持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-15 09:33:50</t>
+          <t>2025-07-16 09:39:39</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -639,19 +836,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>奥康国际 没有可用持仓</t>
+          <t>无 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-15 09:35:53</t>
+          <t>2025-07-16 10:14:27</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>中创物流</t>
+          <t>大众交通</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -660,26 +857,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
+          <t>无法获取可用资金</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-15 09:49:59</t>
+          <t>2025-07-16 10:14:47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>博敏电子</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -688,82 +885,82 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>0.02</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-15 10:32:17</t>
+          <t>2025-07-16 11:12:54</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>*ST亚太</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
+          <t>买入 *ST亚太 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-15 10:33:17</t>
+          <t>2025-07-16 11:13:19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>和展能源</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-15 10:34:15</t>
+          <t>2025-07-16 11:14:36</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>士兰微</t>
+          <t>ST数源</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -772,19 +969,1536 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 ST数源 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:15:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>*ST兰黄</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:15:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>金房能源</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>买入 金房能源 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:16:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>买入 农心科技 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>买入 坤泰股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:17:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>买入 光华股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:19:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>买入 楚环科技 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:20:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>南矿集团</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>买入 南矿集团 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:21:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:58:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:58:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:59:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>买入 世龙实业 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:59:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>买入 黄山胶囊 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:59:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>买入 名雕股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:00:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>海象新材</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:00:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>金富科技</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:01:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>锐奇股份</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>买入 锐奇股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:01:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>维尔利</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>买入 维尔利 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:02:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>三雄极光</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:02:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>浙江力诺</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:03:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>华骐环保</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:03:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>*ST清研</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:04:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>仁信新材</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>买入 仁信新材 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:04:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>森泰股份</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>买入 森泰股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:04:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>港通医疗</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:05:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:05:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>恒丰纸业</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:06:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>腾达建设</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:06:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>菲达环保</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>买入 菲达环保 未知 股失败: ('Unknown RPC error: -32001 androidx.test.uiautomator.StaleObjectException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},), 'androidx.test.uiautomator.StaleObjectException\n\tat androidx.test.uiautomator.UiObject2.getAccessibilityNodeInfo(UiObject2.java:1018)\n\tat androidx.test.uiautomator.UiObject2.isCheckable(UiObject2.java:423)\n\tat com.wetest.uia2.stub.ObjInfo.&lt;init&gt;(ObjInfo.java:68)\n\tat com.wetest.uia2.stub.ObjInfo.getObjInfo(ObjInfo.java:44)\n\tat com.wetest.uia2.stub.AutomatorServiceImpl.objInfo(AutomatorServiceImpl.java:844)\n\tat java.lang.reflect.Method.invoke(Native Method)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.invoke(JsonRpcBasicServer.java:467)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleObject(JsonRpcBasicServer.java:352)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleJsonNodeRequest(JsonRpcBasicServer.java:283)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleRequest(JsonRpcBasicServer.java:251)\n\tat com.wetest.uia2.stub.AutomatorHttpServer.serve(AutomatorHttpServer.java:101)\n\tat fi.iki.elonen.NanoHTTPD.serve(NanoHTTPD.java:2244)\n\tat fi.iki.elonen.NanoHTTPD$HTTPSession.execute(NanoHTTPD.java:945)\n\tat fi.iki.elonen.NanoHTTPD$ClientHandler.run(NanoHTTPD.java:192)\n\tat java.lang.Thread.run(Thread.java:764)\n')</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:07:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>京投发展</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:07:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>博闻科技</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:08:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>买入 奥康国际 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:08:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>彩蝶实业</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:09:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:10:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>汇通集团</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>买入 汇通集团 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:10:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>德创环保</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:11:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>嘉华股份</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:11:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>买入 建研院 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:12:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>梅轮电梯</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:12:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>天创时尚</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>买入 天创时尚 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:13:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>建发合诚</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>买入 建发合诚 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:13:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>铁流股份</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>买入 铁流股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:13:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>炬芯科技</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:14:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>申联生物</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:14:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>高铁电气</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>买入 高铁电气 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:15:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>复洁环保</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:15:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>工大高科</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:15:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>科美诊断</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:16:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>九州一轨</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:16:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>金冠电气</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:16:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>康众医疗</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>元琛科技</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>买入 元琛科技 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>科汇股份</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:17:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
         <v>33</v>
       </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:18:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>合锻智能</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>33</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:18:54</t>
         </is>
       </c>
     </row>
@@ -842,7 +2556,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -851,54 +2565,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -914,19 +2628,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -935,26 +2649,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -963,26 +2677,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -998,19 +2712,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1026,40 +2740,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -1069,6 +2783,281 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1595,7 +3584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1680,7 +3669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1732,7 +3721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1839,7 +3828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1966,197 +3955,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2025-07-01 11:22:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-27.94</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山高环能</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-29.21</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>稀土ETF基金</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -2219,58 +4017,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2282,51 +4080,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2342,12 +4140,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -2405,35 +4203,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2442,7 +4240,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -2454,23 +4252,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -2482,63 +4280,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -2548,6 +4346,602 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>湖南投资 没有持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:32:32</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-08 14:35:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-39.45</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>粤宏远A 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-08 14:36:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-08 14:36:48</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-7.2</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>恒基达鑫 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:22:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:23:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:29:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>荣晟环保</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>荣晟环保 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:30:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:31:12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2766,333 +5160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>华胜天成</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31.95</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:35:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-39.45</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>粤宏远A 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:36:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>元利科技</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-08 14:36:48</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-7.2</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>恒基达鑫 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:22:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>保利发展</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:23:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:29:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>荣晟环保</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>荣晟环保 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:30:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-10 10:31:12</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3406,7 +5474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3513,7 +5581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3732,7 +5800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3839,7 +5907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4002,7 +6070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4275,1796 +6343,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-16 09:31:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-16 09:39:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>无 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-16 10:14:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>大众交通</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>无法获取可用资金</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-16 10:14:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:12:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>*ST亚太</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>买入 *ST亚太 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:13:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>和展能源</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:14:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ST数源</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 ST数源 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:15:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>*ST兰黄</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:15:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>金房能源</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>买入 金房能源 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:16:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>买入 农心科技 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>买入 坤泰股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>买入 光华股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:19:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>楚环科技</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>买入 楚环科技 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:20:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>南矿集团</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>买入 南矿集团 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:21:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:58:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:58:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:59:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>世龙实业</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>买入 世龙实业 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:59:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>买入 黄山胶囊 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:59:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>名雕股份</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>买入 名雕股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:00:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>海象新材</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:00:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>金富科技</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:01:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>锐奇股份</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>买入 锐奇股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:01:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>维尔利</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>买入 维尔利 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:02:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>三雄极光</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:02:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>浙江力诺</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:03:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>华骐环保</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:03:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>*ST清研</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:04:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>仁信新材</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>买入 仁信新材 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:04:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>森泰股份</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>买入 森泰股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:04:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>港通医疗</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:05:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:05:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>恒丰纸业</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:06:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>腾达建设</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:06:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>菲达环保</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>买入 菲达环保 未知 股失败: ('Unknown RPC error: -32001 androidx.test.uiautomator.StaleObjectException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},), 'androidx.test.uiautomator.StaleObjectException\n\tat androidx.test.uiautomator.UiObject2.getAccessibilityNodeInfo(UiObject2.java:1018)\n\tat androidx.test.uiautomator.UiObject2.isCheckable(UiObject2.java:423)\n\tat com.wetest.uia2.stub.ObjInfo.&lt;init&gt;(ObjInfo.java:68)\n\tat com.wetest.uia2.stub.ObjInfo.getObjInfo(ObjInfo.java:44)\n\tat com.wetest.uia2.stub.AutomatorServiceImpl.objInfo(AutomatorServiceImpl.java:844)\n\tat java.lang.reflect.Method.invoke(Native Method)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.invoke(JsonRpcBasicServer.java:467)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleObject(JsonRpcBasicServer.java:352)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleJsonNodeRequest(JsonRpcBasicServer.java:283)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleRequest(JsonRpcBasicServer.java:251)\n\tat com.wetest.uia2.stub.AutomatorHttpServer.serve(AutomatorHttpServer.java:101)\n\tat fi.iki.elonen.NanoHTTPD.serve(NanoHTTPD.java:2244)\n\tat fi.iki.elonen.NanoHTTPD$HTTPSession.execute(NanoHTTPD.java:945)\n\tat fi.iki.elonen.NanoHTTPD$ClientHandler.run(NanoHTTPD.java:192)\n\tat java.lang.Thread.run(Thread.java:764)\n')</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:07:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>京投发展</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:07:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>博闻科技</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:08:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>买入 奥康国际 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:08:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>彩蝶实业</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:09:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:10:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>汇通集团</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>买入 汇通集团 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:10:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>德创环保</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:11:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>嘉华股份</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:11:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>建研院</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>买入 建研院 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:12:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>梅轮电梯</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:12:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>天创时尚</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>买入 天创时尚 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:13:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>建发合诚</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>买入 建发合诚 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:13:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>铁流股份</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>买入 铁流股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:13:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>炬芯科技</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:14:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>申联生物</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:14:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>高铁电气</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>买入 高铁电气 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:15:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>复洁环保</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>工大高科</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:15:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>科美诊断</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D56" t="b">
-        <v>1</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:16:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>九州一轨</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:16:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>金冠电气</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D58" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:16:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>康众医疗</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D59" t="b">
-        <v>0</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>元琛科技</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D60" t="b">
-        <v>0</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>买入 元琛科技 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:17:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>科汇股份</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D61" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:17:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>33</v>
-      </c>
-      <c r="D62" t="b">
-        <v>0</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:18:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>33</v>
-      </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:18:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,6 +707,90 @@
       <c r="F9" t="inlineStr">
         <is>
           <t>2025-07-29 11:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>浙大网新</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>浙大网新 没有持仓</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:27:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>****</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>买入 **** 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:45:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:53:23</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
@@ -7,28 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,35 +490,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>银座股份</t>
+          <t>美芝股份</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10.17</v>
+        <v>-2.03</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>美芝股份 没有持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-29 09:43:48</t>
+          <t>2025-07-30 09:33:27</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>深圳新星</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -526,7 +527,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -538,70 +539,70 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-29 09:44:11</t>
+          <t>2025-07-30 09:33:44</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>大业股份</t>
+          <t>一彬科技</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-1.26</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>一彬科技 没有持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-29 09:44:30</t>
+          <t>2025-07-30 09:33:59</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>华设集团</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>德联集团 没有持仓</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-29 09:44:52</t>
+          <t>2025-07-30 09:34:13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>皇氏集团</t>
+          <t>德龙汇能</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -610,26 +611,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>-2.09</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>卖出 皇氏集团 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
+          <t>德龙汇能 没有持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-29 09:46:11</t>
+          <t>2025-07-30 09:34:27</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>春雪食品</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -638,7 +639,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33.29</v>
+        <v>2.03</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -650,14 +651,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-29 09:49:10</t>
+          <t>2025-07-30 09:34:45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>百达精工</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -666,110 +667,110 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33.29</v>
+        <v>1.99</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>买入 **** 未知 股失败: 无法获取实时价格</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-29 11:22:04</t>
+          <t>2025-07-30 09:35:10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>华勤技术</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>33.29</v>
+        <v>-1.31</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>买入 华勤技术 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+          <t>惠达卫浴 没有持仓</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-29 11:22:19</t>
+          <t>2025-07-30 09:35:27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>浙大网新</t>
+          <t>金鹰股份</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>浙大网新 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-07-29 14:27:50</t>
+          <t>2025-07-30 09:35:49</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>瑞尔特</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32.89</v>
+        <v>-0.2</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>买入 **** 未知 股失败: 无法获取实时价格</t>
+          <t>瑞尔特 没有持仓</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-07-29 14:45:38</t>
+          <t>2025-07-30 09:36:09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>东方锆业</t>
+          <t>双箭股份</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -778,7 +779,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32.89</v>
+        <v>1.37</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -790,7 +791,427 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-07-29 14:53:23</t>
+          <t>2025-07-30 09:36:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>中重科技</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>大龙地产 没有持仓</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:37:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>林海股份</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>买入 林海股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/ok_btn']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:38:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>买入 恒尚节能 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/prompt_content'},))</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:38:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>曙光股份</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>买入 曙光股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/prompt_content'},))</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:38:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>黄山胶囊 没有持仓</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:39:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>福建金森</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>福建金森 没有持仓</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>三柏硕</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>三柏硕 没有持仓</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:39:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>友好集团</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>友好集团 没有持仓</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:40:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>深圳新星</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>深圳新星 没有持仓</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:40:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>紫金矿业 没有持仓</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:40:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>大业股份</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>大业股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:40:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>海南矿业</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:41:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>诚邦股份</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>买入 诚邦股份 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:41:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>卖出 华勤技术 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-07-30 09:43:33</t>
         </is>
       </c>
     </row>
@@ -800,6 +1221,281 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-15.75</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>恒基达鑫 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:07:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>无 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:08:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>大众交通</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>大众交通 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:08:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入 无 未知 股失败: {'code': -32002, 'data': "Selector [className='android.widget.EditText', instance=2]", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:09:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>华孚时尚</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入 华孚时尚 未知 股失败: {'code': -32002, 'data': "Selector [className='android.widget.EditText', instance=2]", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-17 10:09:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>卧龙电驱 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-17 14:34:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>恒生电子</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-17 14:34:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>合锻智能</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>卖出 合锻智能 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-17 14:35:15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2583,281 +3279,6 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>2025-07-16 12:18:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-58.48</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>粤宏远A 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>多氟多 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>奥康国际 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:35:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:32:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:34:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -2915,7 +3336,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2924,54 +3345,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2987,19 +3408,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3008,26 +3429,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3036,26 +3457,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3071,19 +3492,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3099,40 +3520,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -3142,6 +3563,281 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3668,7 +4364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3753,7 +4449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3805,7 +4501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3912,7 +4608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4039,197 +4735,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2025-07-01 11:22:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-27.94</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山高环能</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-29.21</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>稀土ETF基金</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -4292,58 +4797,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4355,51 +4860,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4415,12 +4920,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -4435,7 +4940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4478,28 +4983,308 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>湖南投资</t>
+          <t>银座股份</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-5.72</v>
+        <v>10.17</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>湖南投资 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-28 09:32:32</t>
+          <t>2025-07-29 09:43:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳新星</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:44:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>大业股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:44:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>华设集团</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:44:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>皇氏集团</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>卖出 皇氏集团 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:49:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>****</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>买入 **** 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-29 11:22:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 华勤技术 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-29 11:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>浙大网新</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>浙大网新 没有持仓</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:27:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>****</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>买入 **** 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:45:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:53:23</t>
         </is>
       </c>
     </row>
@@ -4557,35 +5342,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4594,7 +5379,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -4606,23 +5391,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -4634,63 +5419,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -4700,6 +5485,197 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4834,7 +5810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5031,6 +6007,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>湖南投资 没有持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:32:32</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5244,7 +6299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5558,7 +6613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5665,7 +6720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5884,7 +6939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5991,7 +7046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6152,279 +7207,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-15.75</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>恒基达鑫 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:07:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>无 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:08:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>大众交通</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>大众交通 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:08:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 无 未知 股失败: {'code': -32002, 'data': "Selector [className='android.widget.EditText', instance=2]", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:09:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>华孚时尚</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 华孚时尚 未知 股失败: {'code': -32002, 'data': "Selector [className='android.widget.EditText', instance=2]", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:09:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卧龙电驱 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-17 14:34:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>恒生电子</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-17 14:34:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>卖出 合锻智能 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-17 14:35:15</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
@@ -7,31 +7,32 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>鄂尔多斯</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -501,26 +502,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-30.01</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>梦网科技 没有持仓</t>
+          <t>鄂尔多斯 没有持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-01 14:45:18</t>
+          <t>2025-08-04 09:32:08</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>锐明技术</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -529,7 +530,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -541,203 +542,63 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-01 14:45:36</t>
+          <t>2025-08-04 09:32:25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>航天彩虹</t>
+          <t>大业股份</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>卖出 航天彩虹 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-01 14:45:49</t>
+          <t>2025-08-04 09:32:43</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>包钢股份</t>
+          <t>中设股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>包钢股份 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-08-01 14:46:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>海南矿业</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>海南矿业 没有持仓</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:46:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>大金重工</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>买入 大金重工 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:46:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>镇海股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>镇海股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:47:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>文科园林</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 文科园林 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:47:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>诚邦股份</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>诚邦股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:47:48</t>
+          <t>2025-08-04 09:33:04</t>
         </is>
       </c>
     </row>
@@ -747,6 +608,225 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>买入 居然智家 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-43.54</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>粤宏远A 没有持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:22:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>航锦科技</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>航锦科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>三一重工 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:23:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>中联重科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:46:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>通力科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>通力科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:46:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -853,7 +933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1016,7 +1096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1291,7 +1371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3075,281 +3155,6 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>2025-07-16 12:18:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-58.48</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>粤宏远A 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>多氟多 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>奥康国际 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:35:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:32:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:34:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3212,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3416,54 +3221,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3479,19 +3284,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3500,26 +3305,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3528,26 +3333,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3563,19 +3368,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3591,40 +3396,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -3634,6 +3439,281 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4160,7 +4240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4245,7 +4325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4297,7 +4377,310 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>梦网科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:45:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:45:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>卖出 航天彩虹 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:45:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>包钢股份</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>包钢股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:46:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>海南矿业</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>海南矿业 没有持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:46:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>大金重工</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>买入 大金重工 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:46:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>镇海股份</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>镇海股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:47:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>文科园林</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 文科园林 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:47:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>诚邦股份</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>诚邦股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:47:48</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4404,170 +4787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>东阳光</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>东阳光 没有持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-31 09:31:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>鄂尔多斯</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-31 09:32:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>华设集团</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>华设集团 没有持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-31 09:32:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>卖出 东方锆业 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-31 11:21:44</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4694,197 +4914,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2025-07-01 11:22:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-27.94</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山高环能</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-29.21</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>稀土ETF基金</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -4947,58 +4976,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5010,51 +5039,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5070,12 +5099,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -5133,35 +5162,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5170,7 +5199,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -5182,23 +5211,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -5210,63 +5239,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -5276,6 +5305,197 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5410,7 +5630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5607,6 +5827,169 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>东阳光</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>东阳光 没有持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-31 09:31:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>鄂尔多斯</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-31 09:32:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>华设集团</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>华设集团 没有持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-31 09:32:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>卖出 东方锆业 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-31 11:21:44</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6380,7 +6763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6739,7 +7122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6818,7 +7201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7037,7 +7420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7351,7 +7734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7456,223 +7839,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>买入 居然智家 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-22 10:22:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-43.54</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>粤宏远A 没有持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-22 10:22:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>航锦科技</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>航锦科技 没有持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-22 10:23:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>三一重工</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>三一重工 没有持仓</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-22 10:23:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>中联重科</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-22 13:46:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>通力科技</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>通力科技 没有持仓</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-22 13:46:42</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
@@ -7,32 +7,34 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,63 +495,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>鄂尔多斯</t>
+          <t>梦网科技</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>30.87</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>鄂尔多斯 没有持仓</t>
+          <t>买入 梦网科技 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-04 09:32:08</t>
+          <t>2025-08-06 09:40:08</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>振江股份</t>
+          <t>广晟有色</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>广晟有色 没有持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-04 09:32:25</t>
+          <t>2025-08-06 09:40:21</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>大业股份</t>
+          <t>城地香江</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -570,35 +572,231 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-04 09:32:43</t>
+          <t>2025-08-06 09:40:39</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>中设股份</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>光华科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:59:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>委托已提交</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-04 09:33:04</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:59:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>恒立液压</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>恒立液压 没有持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:14:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>王子新材</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:42:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 天赐材料 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:55:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>智微智能</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-06 11:26:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>奥飞娱乐</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>买入 奥飞娱乐 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-06 13:01:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>三星医疗</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>三星医疗 没有持仓</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-08-06 13:39:19</t>
         </is>
       </c>
     </row>
@@ -613,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,11 +850,26 @@
           <t>时间</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -665,26 +878,29 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31.8</v>
+        <v>32.54</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>买入 居然智家 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-22 10:22:35</t>
-        </is>
-      </c>
+          <t>2025-07-24 10:29:22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>望变电气</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -693,26 +909,29 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-43.54</v>
+        <v>5</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>粤宏远A 没有持仓</t>
+          <t>望变电气 没有持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-22 10:22:46</t>
-        </is>
-      </c>
+          <t>2025-07-24 10:46:04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>航锦科技</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -721,26 +940,29 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>航锦科技 没有持仓</t>
+          <t>卖出 中创物流 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-22 10:23:05</t>
-        </is>
-      </c>
+          <t>2025-07-24 10:46:25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>三一重工</t>
+          <t>望变电气</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -749,26 +971,29 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>三一重工 没有持仓</t>
+          <t>望变电气 没有持仓</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-22 10:23:21</t>
-        </is>
-      </c>
+          <t>2025-07-24 10:46:41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>中联重科</t>
+          <t>三安光电</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -789,14 +1014,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-22 13:46:23</t>
-        </is>
-      </c>
+          <t>2025-07-24 10:46:57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>通力科技</t>
+          <t>万丰奥威</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -808,18 +1036,83 @@
         <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>通力科技 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-22 13:46:42</t>
-        </is>
-      </c>
+          <t>2025-07-24 11:22:49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>人福医药</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-24 13:36:28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>中联重科</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-24 14:08:09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -875,7 +1168,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>巨人网络</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -884,47 +1177,47 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-28.93</v>
+        <v>-9.640000000000001</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>巨人网络 没有持仓</t>
+          <t>卖出 粤宏远A 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-21 17:38:11</t>
+          <t>2025-07-23 13:45:19</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>建研院</t>
+          <t>望变电气</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.08</v>
+        <v>15</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>建研院 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-21 17:38:32</t>
+          <t>2025-07-23 13:45:40</t>
         </is>
       </c>
     </row>
@@ -934,6 +1227,332 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>买入 居然智家 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-43.54</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>粤宏远A 没有持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:22:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>航锦科技</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>航锦科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>三一重工</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>三一重工 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-22 10:23:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>中联重科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:46:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>通力科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>通力科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-22 13:46:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>巨人网络</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-28.93</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>巨人网络 没有持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-21 17:38:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>建研院 没有持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-21 17:38:32</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1088,2073 +1707,6 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>2025-07-18 13:57:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-15.75</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>恒基达鑫 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:07:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>无 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:08:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>大众交通</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>大众交通 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:08:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 无 未知 股失败: {'code': -32002, 'data': "Selector [className='android.widget.EditText', instance=2]", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:09:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>华孚时尚</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 华孚时尚 未知 股失败: {'code': -32002, 'data': "Selector [className='android.widget.EditText', instance=2]", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-17 10:09:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卧龙电驱 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-17 14:34:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>恒生电子</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-17 14:34:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>卖出 合锻智能 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-17 14:35:15</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-16 09:31:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>卧龙电驱</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-16 09:39:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>无 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-16 10:14:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>大众交通</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>无法获取可用资金</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-16 10:14:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:12:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>*ST亚太</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>买入 *ST亚太 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:13:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>和展能源</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:14:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ST数源</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 ST数源 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:15:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>*ST兰黄</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:15:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>金房能源</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>买入 金房能源 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:16:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>买入 农心科技 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>买入 坤泰股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:17:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>买入 光华股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:19:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>楚环科技</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>买入 楚环科技 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:20:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>南矿集团</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>买入 南矿集团 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:21:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:58:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>双箭股份</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:58:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:59:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>世龙实业</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>买入 世龙实业 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:59:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>买入 黄山胶囊 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2025-07-16 11:59:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>名雕股份</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>买入 名雕股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:00:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>海象新材</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:00:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>金富科技</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:01:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>锐奇股份</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>买入 锐奇股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:01:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>维尔利</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>买入 维尔利 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:02:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>三雄极光</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:02:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>浙江力诺</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:03:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>华骐环保</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:03:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>*ST清研</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:04:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>仁信新材</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>买入 仁信新材 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:04:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>森泰股份</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>买入 森泰股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:04:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>港通医疗</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:05:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:05:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>恒丰纸业</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:06:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>腾达建设</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:06:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>菲达环保</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>买入 菲达环保 未知 股失败: ('Unknown RPC error: -32001 androidx.test.uiautomator.StaleObjectException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},), 'androidx.test.uiautomator.StaleObjectException\n\tat androidx.test.uiautomator.UiObject2.getAccessibilityNodeInfo(UiObject2.java:1018)\n\tat androidx.test.uiautomator.UiObject2.isCheckable(UiObject2.java:423)\n\tat com.wetest.uia2.stub.ObjInfo.&lt;init&gt;(ObjInfo.java:68)\n\tat com.wetest.uia2.stub.ObjInfo.getObjInfo(ObjInfo.java:44)\n\tat com.wetest.uia2.stub.AutomatorServiceImpl.objInfo(AutomatorServiceImpl.java:844)\n\tat java.lang.reflect.Method.invoke(Native Method)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.invoke(JsonRpcBasicServer.java:467)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleObject(JsonRpcBasicServer.java:352)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleJsonNodeRequest(JsonRpcBasicServer.java:283)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleRequest(JsonRpcBasicServer.java:251)\n\tat com.wetest.uia2.stub.AutomatorHttpServer.serve(AutomatorHttpServer.java:101)\n\tat fi.iki.elonen.NanoHTTPD.serve(NanoHTTPD.java:2244)\n\tat fi.iki.elonen.NanoHTTPD$HTTPSession.execute(NanoHTTPD.java:945)\n\tat fi.iki.elonen.NanoHTTPD$ClientHandler.run(NanoHTTPD.java:192)\n\tat java.lang.Thread.run(Thread.java:764)\n')</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:07:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>京投发展</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:07:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>博闻科技</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:08:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>买入 奥康国际 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:08:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>彩蝶实业</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:09:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:10:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>汇通集团</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>买入 汇通集团 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:10:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>德创环保</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:11:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>嘉华股份</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:11:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>建研院</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>买入 建研院 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:12:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>梅轮电梯</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:12:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>天创时尚</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>买入 天创时尚 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:13:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>建发合诚</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>买入 建发合诚 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:13:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>铁流股份</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>买入 铁流股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:13:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>炬芯科技</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:14:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>申联生物</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:14:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>高铁电气</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>买入 高铁电气 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:15:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>复洁环保</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>工大高科</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:15:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>科美诊断</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D56" t="b">
-        <v>1</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:16:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>九州一轨</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:16:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>金冠电气</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D58" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:16:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>康众医疗</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D59" t="b">
-        <v>0</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>元琛科技</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D60" t="b">
-        <v>0</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>买入 元琛科技 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:17:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>科汇股份</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D61" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>科创板股票买入数量200起   
-你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:17:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>33</v>
-      </c>
-      <c r="D62" t="b">
-        <v>0</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:18:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>合锻智能</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>33</v>
-      </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2025-07-16 12:18:54</t>
         </is>
       </c>
     </row>
@@ -3212,7 +1764,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3221,26 +1773,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-58.48</v>
+        <v>-15.75</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>粤宏远A 没有可用持仓</t>
+          <t>恒基达鑫 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-15 09:33:18</t>
+          <t>2025-07-17 10:07:43</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>多氟多</t>
+          <t>无</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3256,19 +1808,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>多氟多 没有可用持仓</t>
+          <t>无 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-15 09:33:50</t>
+          <t>2025-07-17 10:08:12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>大众交通</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3284,19 +1836,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>奥康国际 没有可用持仓</t>
+          <t>大众交通 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-15 09:35:53</t>
+          <t>2025-07-17 10:08:35</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>中创物流</t>
+          <t>无</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3305,26 +1857,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
+          <t>买入 无 未知 股失败: {'code': -32002, 'data': "Selector [className='android.widget.EditText', instance=2]", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-15 09:49:59</t>
+          <t>2025-07-17 10:09:12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>博敏电子</t>
+          <t>华孚时尚</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3333,26 +1885,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
+          <t>买入 华孚时尚 未知 股失败: {'code': -32002, 'data': "Selector [className='android.widget.EditText', instance=2]", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-15 10:32:17</t>
+          <t>2025-07-17 10:09:45</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>卧龙电驱</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3368,68 +1920,68 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
+          <t>卧龙电驱 没有可用持仓</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-15 10:33:17</t>
+          <t>2025-07-17 14:34:06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>恒生电子</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-15 10:34:15</t>
+          <t>2025-07-17 14:34:31</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>士兰微</t>
+          <t>合锻智能</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
+          <t>卖出 合锻智能 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-15 10:41:28</t>
+          <t>2025-07-17 14:35:15</t>
         </is>
       </c>
     </row>
@@ -3439,6 +1991,1798 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-16 09:31:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>卧龙电驱</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-16 09:39:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>士兰微</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>无 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-16 10:14:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>大众交通</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>无法获取可用资金</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-16 10:14:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:12:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>*ST亚太</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>买入 *ST亚太 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:13:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>和展能源</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ST数源</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 ST数源 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:15:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>*ST兰黄</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:15:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>金房能源</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>买入 金房能源 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:16:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>买入 农心科技 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>买入 坤泰股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:17:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>买入 光华股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:19:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>买入 楚环科技 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:20:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>南矿集团</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>买入 南矿集团 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_buy_text']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:21:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:58:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:58:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:59:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>买入 世龙实业 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:59:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>买入 黄山胶囊 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-07-16 11:59:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>买入 名雕股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:00:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>海象新材</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:00:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>金富科技</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:01:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>锐奇股份</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>买入 锐奇股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:01:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>维尔利</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>买入 维尔利 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:02:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>三雄极光</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:02:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>浙江力诺</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:03:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>华骐环保</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:03:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>*ST清研</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:04:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>仁信新材</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>买入 仁信新材 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:04:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>森泰股份</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>买入 森泰股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:04:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>港通医疗</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:05:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:05:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>恒丰纸业</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:06:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>腾达建设</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:06:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>菲达环保</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>买入 菲达环保 未知 股失败: ('Unknown RPC error: -32001 androidx.test.uiautomator.StaleObjectException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},), 'androidx.test.uiautomator.StaleObjectException\n\tat androidx.test.uiautomator.UiObject2.getAccessibilityNodeInfo(UiObject2.java:1018)\n\tat androidx.test.uiautomator.UiObject2.isCheckable(UiObject2.java:423)\n\tat com.wetest.uia2.stub.ObjInfo.&lt;init&gt;(ObjInfo.java:68)\n\tat com.wetest.uia2.stub.ObjInfo.getObjInfo(ObjInfo.java:44)\n\tat com.wetest.uia2.stub.AutomatorServiceImpl.objInfo(AutomatorServiceImpl.java:844)\n\tat java.lang.reflect.Method.invoke(Native Method)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.invoke(JsonRpcBasicServer.java:467)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleObject(JsonRpcBasicServer.java:352)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleJsonNodeRequest(JsonRpcBasicServer.java:283)\n\tat com.googlecode.jsonrpc4j.JsonRpcBasicServer.handleRequest(JsonRpcBasicServer.java:251)\n\tat com.wetest.uia2.stub.AutomatorHttpServer.serve(AutomatorHttpServer.java:101)\n\tat fi.iki.elonen.NanoHTTPD.serve(NanoHTTPD.java:2244)\n\tat fi.iki.elonen.NanoHTTPD$HTTPSession.execute(NanoHTTPD.java:945)\n\tat fi.iki.elonen.NanoHTTPD$ClientHandler.run(NanoHTTPD.java:192)\n\tat java.lang.Thread.run(Thread.java:764)\n')</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:07:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>京投发展</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:07:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>博闻科技</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:08:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>买入 奥康国际 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:08:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>彩蝶实业</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:09:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:10:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>汇通集团</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>买入 汇通集团 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:10:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>德创环保</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:11:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>嘉华股份</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:11:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>买入 建研院 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:12:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>梅轮电梯</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:12:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>天创时尚</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>买入 天创时尚 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:13:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>建发合诚</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>买入 建发合诚 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:13:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>铁流股份</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>买入 铁流股份 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:13:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>炬芯科技</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:14:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>申联生物</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:14:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>高铁电气</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>买入 高铁电气 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:15:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>复洁环保</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:15:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>工大高科</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:15:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>科美诊断</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:16:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>九州一轨</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:16:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>金冠电气</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:16:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>康众医疗</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>元琛科技</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>买入 元琛科技 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/refresh_container'},))</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>科汇股份</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>科创板股票买入数量200起   
+你可能没有科创板权限，你可以在交易首页通过业务办理或科创板开通功能申请开通，如没有相关功能菜单请登录证券公司官网网上营业厅办理开通。</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:17:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>33</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:18:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>合锻智能</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>33</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2025-07-16 12:18:54</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3487,7 +3831,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3496,54 +3840,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3559,19 +3903,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3580,26 +3924,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3608,26 +3952,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3643,19 +3987,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3671,40 +4015,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -3713,7 +4057,282 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4240,7 +4859,198 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>宝钛股份</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-05 09:31:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>广晟有色</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-05 09:31:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>中设股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-05 09:32:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>王子新材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入 王子新材 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-05 09:54:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>光华科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-05 10:16:11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4325,7 +5135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4377,310 +5187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>梦网科技</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-30.01</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>梦网科技 没有持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:45:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>锐明技术</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:45:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>航天彩虹</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>卖出 航天彩虹 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:45:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>包钢股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>包钢股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:46:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>海南矿业</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>海南矿业 没有持仓</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:46:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>大金重工</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>买入 大金重工 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:46:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>镇海股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>镇海股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:47:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>文科园林</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 文科园林 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:47:37</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>诚邦股份</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>诚邦股份 没有持仓</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-08-01 14:47:48</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4787,7 +5294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4914,388 +5421,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2025-07-01 11:22:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-27.94</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山高环能</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-29.21</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>稀土ETF基金</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-04 10:39:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>贵阳银行</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-04 10:39:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>德联集团</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-04 10:41:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>光伏ETF</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>49.79</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-04 14:00:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>太极实业</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>太极实业 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -5353,7 +5478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5362,82 +5487,82 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5446,7 +5571,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -5458,35 +5583,35 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -5501,7 +5626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5544,7 +5669,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5553,54 +5678,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31.95</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-08 14:35:49</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-39.45</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>粤宏远A 没有可用持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-08 14:36:09</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5621,7 +5746,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-08 14:36:48</t>
+          <t>2025-07-04 10:41:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>光伏ETF</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-04 14:00:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>太极实业</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>太极实业 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -5679,6 +5860,332 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-08 14:35:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>粤宏远A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-39.45</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>粤宏远A 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-08 14:36:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-08 14:36:48</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>恒基达鑫</t>
         </is>
       </c>
@@ -5870,7 +6377,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>东阳光</t>
+          <t>鄂尔多斯</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5886,19 +6393,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>东阳光 没有持仓</t>
+          <t>鄂尔多斯 没有持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-31 09:31:42</t>
+          <t>2025-08-04 09:32:08</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>鄂尔多斯</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5910,72 +6417,72 @@
         <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-31 09:32:00</t>
+          <t>2025-08-04 09:32:25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>华设集团</t>
+          <t>大业股份</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>华设集团 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-31 09:32:11</t>
+          <t>2025-08-04 09:32:43</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>东方锆业</t>
+          <t>中设股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>卖出 东方锆业 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-31 11:21:44</t>
+          <t>2025-08-04 09:33:04</t>
         </is>
       </c>
     </row>
@@ -5985,6 +6492,472 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-30.01</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>梦网科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:45:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>锐明技术</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:45:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>卖出 航天彩虹 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:45:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>包钢股份</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>包钢股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:46:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>海南矿业</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>海南矿业 没有持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:46:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>大金重工</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>买入 大金重工 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:46:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>镇海股份</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>镇海股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:47:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>文科园林</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 文科园林 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:47:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>诚邦股份</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>诚邦股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-01 14:47:48</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>东阳光</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>东阳光 没有持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-31 09:31:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>鄂尔多斯</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-31 09:32:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>华设集团</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>华设集团 没有持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-31 09:32:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>卖出 东方锆业 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-31 11:21:44</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6763,7 +7736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7122,7 +8095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7201,7 +8174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7418,425 +8391,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32.54</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-24 10:29:22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>望变电气</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>望变电气 没有持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-24 10:46:04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>卖出 中创物流 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-24 10:46:25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>望变电气</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>望变电气 没有持仓</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-24 10:46:41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>三安光电</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-24 10:46:57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>万丰奥威</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-24 11:22:49</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>人福医药</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-24 13:36:28</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>中联重科</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-24 14:08:09</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-9.640000000000001</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>卖出 粤宏远A 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-23 13:45:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>望变电气</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-23 13:45:40</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
@@ -7,34 +7,35 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="29" state="visible" r:id="rId29"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +496,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>云南锗业</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -504,26 +505,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30.87</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>买入 梦网科技 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-06 09:40:08</t>
+          <t>2025-08-07 09:31:21</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>广晟有色</t>
+          <t>大金重工</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -539,68 +540,68 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>广晟有色 没有持仓</t>
+          <t>卖出 大金重工 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-06 09:40:21</t>
+          <t>2025-08-07 09:31:41</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>城地香江</t>
+          <t>文科园林</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>文科园林 没有持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-06 09:40:39</t>
+          <t>2025-08-07 09:31:55</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光华科技</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>18.72</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>光华科技 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-08-06 09:59:14</t>
+          <t>2025-08-07 09:33:21</t>
         </is>
       </c>
     </row>
@@ -612,30 +613,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>领益智造 没有持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-08-06 09:59:33</t>
+          <t>2025-08-07 09:33:36</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>恒立液压</t>
+          <t>智微智能</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -651,28 +652,28 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>恒立液压 没有持仓</t>
+          <t>卖出 智微智能 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-08-06 10:14:49</t>
+          <t>2025-08-07 10:46:05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>王子新材</t>
+          <t>深圳华强</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -684,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-08-06 10:42:07</t>
+          <t>2025-08-07 14:01:16</t>
         </is>
       </c>
     </row>
@@ -696,30 +697,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>买入 天赐材料 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+          <t>天赐材料 没有持仓</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-08-06 10:55:54</t>
+          <t>2025-08-07 14:01:29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>智微智能</t>
+          <t>国泰海通</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -731,72 +732,16 @@
         <v>33</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-08-06 11:26:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>奥飞娱乐</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>买入 奥飞娱乐 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-08-06 13:01:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>三星医疗</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>三星医疗 没有持仓</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-08-06 13:39:19</t>
+          <t>2025-08-07 14:01:49</t>
         </is>
       </c>
     </row>
@@ -806,6 +751,225 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>湖南投资 没有持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-25 09:47:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>兴业银锡</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>买入 兴业银锡 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-25 10:14:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>宝钢股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>买入 宝钢股份 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-25 10:14:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>镇海股份</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入 镇海股份 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-25 10:15:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>美晨生态</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入 美晨生态 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 17, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.TextView', 'text': '持仓'},))</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-25 10:15:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>皇氏集团</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-25 13:21:06</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1119,7 +1283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1226,7 +1390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1445,7 +1609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1552,7 +1716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1715,7 +1879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1990,7 +2154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3774,281 +3938,6 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>2025-07-16 12:18:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-58.48</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>粤宏远A 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>多氟多 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>奥康国际 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:35:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:32:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:34:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -4106,7 +3995,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4115,54 +4004,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4178,19 +4067,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4199,26 +4088,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4227,26 +4116,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4262,19 +4151,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4290,40 +4179,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -4333,6 +4222,640 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30.87</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>买入 梦网科技 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:40:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>广晟有色</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>广晟有色 没有持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:40:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>城地香江</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:40:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>光华科技</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>光华科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:59:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:59:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>恒立液压</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>恒立液压 没有持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:14:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>王子新材</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:42:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 天赐材料 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:55:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>智微智能</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-06 11:26:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>奥飞娱乐</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>买入 奥飞娱乐 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-06 13:01:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>三星医疗</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>三星医疗 没有持仓</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-08-06 13:39:19</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4859,198 +5382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>宝钛股份</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:31:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>广晟有色</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:31:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>中设股份</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:32:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 王子新材 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:54:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-05 10:16:11</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5135,7 +5467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5187,7 +5519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5294,7 +5626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5421,197 +5753,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2025-07-01 11:22:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-27.94</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山高环能</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-29.21</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>稀土ETF基金</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -5674,58 +5815,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5737,51 +5878,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5797,12 +5938,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -5860,35 +6001,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5897,7 +6038,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -5909,23 +6050,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -5937,63 +6078,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -6003,6 +6144,197 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6137,7 +6469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6334,6 +6666,197 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>宝钛股份</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-05 09:31:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>广晟有色</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-05 09:31:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>中设股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-05 09:32:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>王子新材</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入 王子新材 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-05 09:54:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>光华科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-05 10:16:11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6491,7 +7014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6794,7 +7317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6957,7 +7480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7736,7 +8259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8095,7 +8618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8172,223 +8695,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>湖南投资 没有持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-25 09:47:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>兴业银锡</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>买入 兴业银锡 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-25 10:14:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>宝钢股份</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>买入 宝钢股份 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-25 10:14:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>镇海股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 镇海股份 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-25 10:15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>美晨生态</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 美晨生态 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 17, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.TextView', 'text': '持仓'},))</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-25 10:15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>皇氏集团</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-25 13:21:06</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
@@ -7,35 +7,36 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +497,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>云南锗业</t>
+          <t>梦网科技</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -505,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -517,231 +518,63 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-07 09:31:21</t>
+          <t>2025-08-11 10:35:04</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>大金重工</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>卖出 大金重工 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-07 09:31:41</t>
+          <t>2025-08-11 10:35:23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>文科园林</t>
+          <t>福莱新材</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9.26</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>文科园林 没有持仓</t>
+          <t>买入数量计算失败</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-07 09:31:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-07 09:33:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>领益智造</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>领益智造 没有持仓</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-07 09:33:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>智微智能</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出 智微智能 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-08-07 10:46:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>深圳华强</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-08-07 14:01:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>天赐材料</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>天赐材料 没有持仓</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-08-07 14:01:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>国泰海通</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-08-07 14:01:49</t>
+          <t>2025-08-11 13:36:48</t>
         </is>
       </c>
     </row>
@@ -751,6 +584,85 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>湖南投资 没有持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-28 09:32:32</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -969,7 +881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1283,7 +1195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1390,7 +1302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1609,7 +1521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1716,7 +1628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1879,7 +1791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2154,7 +2066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3938,281 +3850,6 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>2025-07-16 12:18:54</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>粤宏远A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-58.48</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>粤宏远A 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>多氟多</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>多氟多 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:33:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>奥康国际</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>奥康国际 没有可用持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:35:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中创物流</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:32:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:34:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -4270,7 +3907,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4279,54 +3916,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4342,19 +3979,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4363,26 +4000,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4391,26 +4028,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4426,19 +4063,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4454,40 +4091,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4545,7 +4182,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>云南锗业</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4554,26 +4191,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30.87</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>买入 梦网科技 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-06 09:40:08</t>
+          <t>2025-08-07 09:31:21</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>广晟有色</t>
+          <t>大金重工</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4589,68 +4226,68 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>广晟有色 没有持仓</t>
+          <t>卖出 大金重工 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-06 09:40:21</t>
+          <t>2025-08-07 09:31:41</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>城地香江</t>
+          <t>文科园林</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>文科园林 没有持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-06 09:40:39</t>
+          <t>2025-08-07 09:31:55</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光华科技</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>18.72</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>光华科技 没有持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-08-06 09:59:14</t>
+          <t>2025-08-07 09:33:21</t>
         </is>
       </c>
     </row>
@@ -4662,30 +4299,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>领益智造 没有持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-08-06 09:59:33</t>
+          <t>2025-08-07 09:33:36</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>恒立液压</t>
+          <t>智微智能</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4701,28 +4338,28 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>恒立液压 没有持仓</t>
+          <t>卖出 智微智能 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-08-06 10:14:49</t>
+          <t>2025-08-07 10:46:05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>王子新材</t>
+          <t>深圳华强</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -4734,7 +4371,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-08-06 10:42:07</t>
+          <t>2025-08-07 14:01:16</t>
         </is>
       </c>
     </row>
@@ -4746,30 +4383,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>买入 天赐材料 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+          <t>天赐材料 没有持仓</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-08-06 10:55:54</t>
+          <t>2025-08-07 14:01:29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>智微智能</t>
+          <t>国泰海通</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4781,72 +4418,16 @@
         <v>33</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-08-06 11:26:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>奥飞娱乐</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>买入 奥飞娱乐 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-08-06 13:01:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>三星医疗</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>三星医疗 没有持仓</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-08-06 13:39:19</t>
+          <t>2025-08-07 14:01:49</t>
         </is>
       </c>
     </row>
@@ -4856,6 +4437,281 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5382,7 +5238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5467,7 +5323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5519,7 +5375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5626,7 +5482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5753,197 +5609,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2025-07-01 11:22:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-27.94</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山高环能</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-29.21</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>稀土ETF基金</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -6006,58 +5671,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6069,51 +5734,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6129,12 +5794,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -6192,35 +5857,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6229,7 +5894,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -6241,23 +5906,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -6269,63 +5934,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -6335,6 +6000,197 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6469,7 +6325,366 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30.87</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>买入 梦网科技 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:40:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>广晟有色</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>广晟有色 没有持仓</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:40:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>城地香江</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:40:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>光华科技</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>光华科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:59:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-06 09:59:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>恒立液压</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>恒立液压 没有持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:14:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>王子新材</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:42:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 天赐材料 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-06 10:55:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>智微智能</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-06 11:26:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>奥飞娱乐</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>买入 奥飞娱乐 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-06 13:01:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>三星医疗</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>三星医疗 没有持仓</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-08-06 13:39:19</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6660,7 +6875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6851,7 +7066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7014,7 +7229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7317,7 +7532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7480,7 +7695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8259,7 +8474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8616,83 +8831,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-5.72</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>湖南投资 没有持仓</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-28 09:32:32</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,34 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2025-08-11 13:36:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>宗申动力</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-11 14:21:11</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
+++ b/Investment/THS/AutoTrade/data/trade_operation_history.xlsx
@@ -7,36 +7,37 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-12" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-11" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-07" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-06" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-05" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-04" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-01" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-31" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-30" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-29" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-28" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-25" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-24" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-23" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-22" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-21" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-18" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-17" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-16" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-15" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-14" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-11" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250625" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20250627" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-06-30" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-01" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-03" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-04" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-07" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-08" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07-10" sheetId="31" state="visible" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,16 +498,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>梦网科技</t>
+          <t>云南锗业</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -518,23 +519,23 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-11 10:35:04</t>
+          <t>2025-08-12 09:32:11</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>博敏电子</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -546,51 +547,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-11 10:35:23</t>
+          <t>2025-08-12 09:32:32</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>福莱新材</t>
+          <t>梦网科技</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.26</v>
+        <v>-31.26</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-11 13:36:48</t>
+          <t>2025-08-12 09:34:01</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>宗申动力</t>
+          <t>中科金财</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>32.89</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -602,7 +603,623 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-08-11 14:21:11</t>
+          <t>2025-08-12 09:34:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>丰林集团</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入 丰林集团 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:45:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>买入 瑞尔特 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/prompt_content']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:46:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>万丰股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:46:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 广电电气 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:47:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>中持股份</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>买入 中持股份 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:47:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>浩物股份</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>买入 浩物股份 200 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/auto_stockcode', text='股票代码/简拼']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:48:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>买入 歌力思 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:49:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>双枪科技 没有持仓</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:49:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>湖南投资 没有持仓</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:49:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>买入 嘉美包装 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:50:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>播恩集团 没有持仓</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:50:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>三柏硕</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>三柏硕 没有持仓</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:50:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>醋化股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:50:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>钱江生化 没有持仓</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:51:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.96</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>黄山胶囊 没有持仓</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:51:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>新宏泽 没有持仓</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:51:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>汇洁股份</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>汇洁股份 没有持仓</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:52:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>百大集团</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>买入 百大集团 200 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/stockvolume']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:52:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>银轮股份</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>33</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>买入 银轮股份 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 16, 'childOrSibling': [], 'childOrSiblingSelector': [], 'className': 'android.widget.EditText'}], resourceId='com.hexin.plat.android:id/stockprice']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:53:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>奥飞娱乐</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:53:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>梦网科技</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>卖出 梦网科技 600.0 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-08-12 11:11:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>神州数码</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>33</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-08-12 13:56:31</t>
         </is>
       </c>
     </row>
@@ -612,6 +1229,365 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>银座股份</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:43:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>深圳新星</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:44:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>大业股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:44:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>华设集团</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:44:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>皇氏集团</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>卖出 皇氏集团 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>航天彩虹</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-29 09:49:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>****</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>买入 **** 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-29 11:22:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>华勤技术</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>33.29</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>买入 华勤技术 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-29 11:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>浙大网新</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>浙大网新 没有持仓</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:27:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>****</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>买入 **** 未知 股失败: 无法获取实时价格</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:45:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>东方锆业</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-07-29 14:53:23</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -690,7 +1666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -909,7 +1885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1223,7 +2199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1330,7 +2306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1549,7 +2525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1656,7 +2632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1819,7 +2795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2094,7 +3070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3886,13 +4862,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3935,375 +4911,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>粤宏远A</t>
+          <t>梦网科技</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-58.48</v>
+        <v>33</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>粤宏远A 没有可用持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-15 09:33:18</t>
+          <t>2025-08-11 10:35:04</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>多氟多</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>多氟多 没有可用持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-15 09:33:50</t>
+          <t>2025-08-11 10:35:23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>福莱新材</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9.26</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>奥康国际 没有可用持仓</t>
+          <t>买入数量计算失败</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-15 09:35:53</t>
+          <t>2025-08-11 13:36:48</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>中创物流</t>
+          <t>宗申动力</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-15 09:49:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>博敏电子</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:32:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>圣达生物</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:33:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>闰土股份</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:34:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>士兰微</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-15 10:41:28</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>云南锗业</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-07 09:31:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>大金重工</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 大金重工 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-07 09:31:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>文科园林</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>文科园林 没有持仓</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-08-07 09:31:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18.72</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -4315,147 +5016,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-08-07 09:33:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>领益智造</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>领益智造 没有持仓</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-07 09:33:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>智微智能</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>卖出 智微智能 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-08-07 10:46:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>深圳华强</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-08-07 14:01:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>天赐材料</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>天赐材料 没有持仓</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-08-07 14:01:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>国泰海通</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-08-07 14:01:49</t>
+          <t>2025-08-11 14:21:11</t>
         </is>
       </c>
     </row>
@@ -4513,7 +5074,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>华胜天成</t>
+          <t>粤宏远A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4522,54 +5083,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-31.26</v>
+        <v>-58.48</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+          <t>粤宏远A 没有可用持仓</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-14 09:44:51</t>
+          <t>2025-07-15 09:33:18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>居然智家</t>
+          <t>多氟多</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.69</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>多氟多 没有可用持仓</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-14 09:46:39</t>
+          <t>2025-07-15 09:33:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4585,19 +5146,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>奥康国际 没有可用持仓</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-14 10:13:11</t>
+          <t>2025-07-15 09:35:53</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XD东方创</t>
+          <t>中创物流</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4606,26 +5167,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 中创物流 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:31</t>
+          <t>2025-07-15 09:49:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国轩高科</t>
+          <t>博敏电子</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -4634,26 +5195,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>买入数量计算失败</t>
+          <t>买入 博敏电子 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-14 16:20:57</t>
+          <t>2025-07-15 10:32:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>长电科技</t>
+          <t>圣达生物</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4669,19 +5230,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>长电科技 没有可用持仓</t>
+          <t>卖出 圣达生物 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-07-14 16:21:35</t>
+          <t>2025-07-15 10:33:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>雪人集团</t>
+          <t>闰土股份</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4697,40 +5258,40 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>卖出 闰土股份 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:17</t>
+          <t>2025-07-15 10:34:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>龙溪股份</t>
+          <t>士兰微</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>当前时间不允许委托</t>
+          <t>买入 士兰微 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/refresh_container']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-07-14 16:22:58</t>
+          <t>2025-07-15 10:41:28</t>
         </is>
       </c>
     </row>
@@ -4740,6 +5301,281 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>华胜天成</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.26</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>卖出 华胜天成 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/menu_sale_text'},))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-14 09:46:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-14 10:13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>XD东方创</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>国轩高科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>买入数量计算失败</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>长电科技</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>长电科技 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:21:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>雪人集团</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>龙溪股份</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>当前时间不允许委托</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-07-14 16:22:58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5266,7 +6102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5351,7 +6187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5403,7 +6239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5510,7 +6346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5637,197 +6473,6 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>2025-07-01 11:22:20</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>恒基达鑫</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>-27.94</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山高环能</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-29.21</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-03 09:33:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>稀土ETF基金</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-03 10:25:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>振江股份</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:04:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杭钢股份</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>不在持仓列表中</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -5890,58 +6535,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.06</v>
+        <v>-27.94</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:07</t>
+          <t>2025-07-03 09:33:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>贵阳银行</t>
+          <t>山高环能</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-29.21</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>卖出 山高环能 未知 股失败: {'code': -32002, 'data': "Selector [resourceId='com.hexin.plat.android:id/menu_sale_text']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-04 10:39:56</t>
+          <t>2025-07-03 09:33:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>德联集团</t>
+          <t>稀土ETF基金</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5953,51 +6598,51 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-04 10:41:23</t>
+          <t>2025-07-03 10:25:24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>振江股份</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.79</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-04 14:00:03</t>
+          <t>2025-07-03 14:04:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太极实业</t>
+          <t>杭钢股份</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -6013,12 +6658,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>太极实业 没有可用持仓</t>
+          <t>不在持仓列表中</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-04 14:51:41</t>
+          <t>2025-07-03 14:08:28</t>
         </is>
       </c>
     </row>
@@ -6076,35 +6721,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>沃顿科技</t>
+          <t>恒基达鑫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-13.92</v>
+        <v>7.06</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:03</t>
+          <t>2025-07-04 10:39:07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>贵阳银行</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6113,7 +6758,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -6125,23 +6770,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-07 09:51:29</t>
+          <t>2025-07-04 10:39:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>闰土股份</t>
+          <t>德联集团</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -6153,63 +6798,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-07 10:27:41</t>
+          <t>2025-07-04 10:41:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>奥康国际</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>49.79</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-07 13:31:14</t>
+          <t>2025-07-04 14:00:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>元利科技</t>
+          <t>太极实业</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>委托已提交</t>
+          <t>太极实业 没有可用持仓</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-07 14:45:42</t>
+          <t>2025-07-04 14:51:41</t>
         </is>
       </c>
     </row>
@@ -6219,6 +6864,500 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>沃顿科技</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-13.92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-07 09:51:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>闰土股份</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-07 10:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>奥康国际</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-07 13:31:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>元利科技</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-07 14:45:42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>云南锗业</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-08-07 09:31:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>大金重工</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>卖出 大金重工 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-08-07 09:31:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>文科园林</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>文科园林 没有持仓</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-08-07 09:31:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-08-07 09:33:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>领益智造</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>领益智造 没有持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-08-07 09:33:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>智微智能</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>卖出 智微智能 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-08-07 10:46:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>深圳华强</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-08-07 14:01:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>天赐材料</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>天赐材料 没有持仓</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-08-07 14:01:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>国泰海通</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-08-07 14:01:49</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6353,7 +7492,198 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>恒基达鑫</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-7.2</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>恒基达鑫 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:22:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>保利发展</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:23:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>圣达生物</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>买入</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>委托已提交</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:29:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>荣晟环保</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>荣晟环保 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:30:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>粤宏远Ａ 没有可用持仓</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-07-10 10:31:12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6712,7 +8042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6761,35 +8091,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>恒基达鑫</t>
+          <t>宝钛股份</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-7.2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>恒基达鑫 没有可用持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-07-10 10:22:40</t>
+          <t>2025-08-05 09:31:41</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>保利发展</t>
+          <t>广晟有色</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6798,35 +8128,35 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>失败</t>
+          <t>买入数量计算失败</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-07-10 10:23:17</t>
+          <t>2025-08-05 09:31:55</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>圣达生物</t>
+          <t>中设股份</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>买入</t>
+          <t>卖出</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -6838,63 +8168,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-07-10 10:29:40</t>
+          <t>2025-08-05 09:32:19</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>荣晟环保</t>
+          <t>王子新材</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>荣晟环保 没有可用持仓</t>
+          <t>买入 王子新材 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-07-10 10:30:26</t>
+          <t>2025-08-05 09:54:01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>粤宏远Ａ</t>
+          <t>光华科技</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>卖出</t>
+          <t>买入</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>粤宏远Ａ 没有可用持仓</t>
+          <t>委托已提交</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-07-10 10:31:12</t>
+          <t>2025-08-05 10:16:11</t>
         </is>
       </c>
     </row>
@@ -6903,198 +8233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>宝钛股份</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:31:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>广晟有色</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>买入数量计算失败</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:31:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>中设股份</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:32:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>王子新材</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>买入 王子新材 未知 股失败: {'code': -32002, 'data': "Selector [childOrSibling=['child'], childOrSiblingSelector=[{'mask': 8388608, 'childOrSibling': [], 'childOrSiblingSelector': [], 'index': 0}], resourceId='com.hexin.plat.android:id/recyclerView']", 'method': 'wait'}</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:54:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>光华科技</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-08-05 10:16:11</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7257,7 +8396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7560,7 +8699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7723,7 +8862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8500,363 +9639,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>状态</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>信息</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>银座股份</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:43:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>深圳新星</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:44:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>大业股份</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:44:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>华设集团</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:44:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>皇氏集团</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>卖出 皇氏集团 未知 股失败: (-32001, 'androidx.test.uiautomator.UiObjectNotFoundException', ({'mask': 2097152, 'childOrSibling': [], 'childOrSiblingSelector': [], 'resourceId': 'com.hexin.plat.android:id/content_stock'},))</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:46:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>航天彩虹</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>33.29</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-07-29 09:49:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>****</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>33.29</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>买入 **** 未知 股失败: 无法获取实时价格</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-07-29 11:22:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>华勤技术</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33.29</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>买入 华勤技术 未知 股失败: int() argument must be a string, a bytes-like object or a real number, not 'NoneType'</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-07-29 11:22:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>浙大网新</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>浙大网新 没有持仓</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-07-29 14:27:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>****</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>32.89</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>买入 **** 未知 股失败: 无法获取实时价格</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-07-29 14:45:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>东方锆业</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>买入</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>32.89</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>委托已提交</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-07-29 14:53:23</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>